--- a/biology/Zoologie/Anabasitte_tachetée/Anabasitte_tachetée.xlsx
+++ b/biology/Zoologie/Anabasitte_tachetée/Anabasitte_tachetée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anabasitte_tachet%C3%A9e</t>
+          <t>Anabasitte_tachetée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Premnoplex brunnescens
 L’Anabasitte tachetée (Premnoplex brunnescens) est une espèce de passereaux de la famille des Furnariidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anabasitte_tachet%C3%A9e</t>
+          <t>Anabasitte_tachetée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit à travers la cordillère de Talamanca et les Andes boréales. Il se rencontre en Bolivie, en Colombie, au Costa Rica, en Équateur, au Panama, au Pérou et au Venezuela[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit à travers la cordillère de Talamanca et les Andes boréales. Il se rencontre en Bolivie, en Colombie, au Costa Rica, en Équateur, au Panama, au Pérou et au Venezuela.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anabasitte_tachet%C3%A9e</t>
+          <t>Anabasitte_tachetée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Anabasitte tachetée ressemble étroitement à l'Anabasitte à gorge blanche, mais à l'inverse possède des points plus petits, foncés et moins denses sur la poitrine, ainsi qu'un bec moins incliné[2].
-Dans sa description de 1856, Sclater indique que cet oiseau présente une longueur totale d'environ 140 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Anabasitte tachetée ressemble étroitement à l'Anabasitte à gorge blanche, mais à l'inverse possède des points plus petits, foncés et moins denses sur la poitrine, ainsi qu'un bec moins incliné.
+Dans sa description de 1856, Sclater indique que cet oiseau présente une longueur totale d'environ 140 mm.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anabasitte_tachet%C3%A9e</t>
+          <t>Anabasitte_tachetée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 août 2023)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 août 2023) :
 Premnoplex brunnescens albescens Griscom, 1927
 Premnoplex brunnescens brunneicauda (Lawrence, 1865)
 Premnoplex brunnescens brunnescens
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anabasitte_tachet%C3%A9e</t>
+          <t>Anabasitte_tachetée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,11 +631,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Premnoplex brunnescens (P.L. Sclater, 1856)[4].
-L'espèce Premnoplex brunnescens a été décrite pour la première fois en 1856 par le zoologiste britannique Philip Lutley Sclater (1829-1913) sous le protonyme Margarornis brunnescens[5],[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Anabasitte tachetée[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Premnoplex brunnescens (P.L. Sclater, 1856).
+L'espèce Premnoplex brunnescens a été décrite pour la première fois en 1856 par le zoologiste britannique Philip Lutley Sclater (1829-1913) sous le protonyme Margarornis brunnescens,.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Anabasitte tachetée.
 </t>
         </is>
       </c>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anabasitte_tachet%C3%A9e</t>
+          <t>Anabasitte_tachetée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,7 +666,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Philip Lutley Sclater, « On Some Additional Species of Birds Received in Collections from Bogota », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 1856,‎ 26 février 1856, p. 25-36 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, lire en ligne)</t>
         </is>
